--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N2">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O2">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P2">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q2">
-        <v>2846.684435814913</v>
+        <v>3765.260776268489</v>
       </c>
       <c r="R2">
-        <v>2846.684435814913</v>
+        <v>33887.3469864164</v>
       </c>
       <c r="S2">
-        <v>0.1451475366541422</v>
+        <v>0.1648691178492865</v>
       </c>
       <c r="T2">
-        <v>0.1451475366541422</v>
+        <v>0.1648691178492865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N3">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P3">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q3">
-        <v>1680.883225982173</v>
+        <v>1878.217755635809</v>
       </c>
       <c r="R3">
-        <v>1680.883225982173</v>
+        <v>16903.95980072228</v>
       </c>
       <c r="S3">
-        <v>0.08570534077646645</v>
+        <v>0.08224134340236247</v>
       </c>
       <c r="T3">
-        <v>0.08570534077646645</v>
+        <v>0.08224134340236246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N4">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O4">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P4">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q4">
-        <v>290.6808730917259</v>
+        <v>340.435914041932</v>
       </c>
       <c r="R4">
-        <v>290.6808730917259</v>
+        <v>3063.923226377388</v>
       </c>
       <c r="S4">
-        <v>0.01482131709117989</v>
+        <v>0.01490663520201996</v>
       </c>
       <c r="T4">
-        <v>0.01482131709117989</v>
+        <v>0.01490663520201996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H5">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I5">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J5">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N5">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O5">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P5">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q5">
-        <v>2577.013731362456</v>
+        <v>2946.544641423421</v>
       </c>
       <c r="R5">
-        <v>2577.013731362456</v>
+        <v>26518.90177281079</v>
       </c>
       <c r="S5">
-        <v>0.1313974918769254</v>
+        <v>0.129020071809332</v>
       </c>
       <c r="T5">
-        <v>0.1313974918769254</v>
+        <v>0.129020071809332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N6">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O6">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P6">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q6">
-        <v>1280.633753475234</v>
+        <v>1516.714923133271</v>
       </c>
       <c r="R6">
-        <v>1280.633753475234</v>
+        <v>13650.43430819943</v>
       </c>
       <c r="S6">
-        <v>0.06529730950661787</v>
+        <v>0.06641225303221862</v>
       </c>
       <c r="T6">
-        <v>0.06529730950661787</v>
+        <v>0.06641225303221861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N7">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P7">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q7">
-        <v>756.1764724465821</v>
+        <v>756.579973642595</v>
       </c>
       <c r="R7">
-        <v>756.1764724465821</v>
+        <v>6809.219762783355</v>
       </c>
       <c r="S7">
-        <v>0.03855613599827069</v>
+        <v>0.03312829582032555</v>
       </c>
       <c r="T7">
-        <v>0.03855613599827069</v>
+        <v>0.03312829582032555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J8">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N8">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O8">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P8">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q8">
-        <v>130.7681781961724</v>
+        <v>137.1337237655102</v>
       </c>
       <c r="R8">
-        <v>130.7681781961724</v>
+        <v>1234.203513889592</v>
       </c>
       <c r="S8">
-        <v>0.006667644189543188</v>
+        <v>0.006004661405421666</v>
       </c>
       <c r="T8">
-        <v>0.006667644189543188</v>
+        <v>0.006004661405421664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J9">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N9">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O9">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P9">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q9">
-        <v>1159.317389040762</v>
+        <v>1186.921303696336</v>
       </c>
       <c r="R9">
-        <v>1159.317389040762</v>
+        <v>10682.29173326703</v>
       </c>
       <c r="S9">
-        <v>0.05911159702231193</v>
+        <v>0.05197161097852902</v>
       </c>
       <c r="T9">
-        <v>0.05911159702231193</v>
+        <v>0.05197161097852902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H10">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N10">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O10">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P10">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q10">
-        <v>2224.130212511972</v>
+        <v>2928.452205697459</v>
       </c>
       <c r="R10">
-        <v>2224.130212511972</v>
+        <v>26356.06985127713</v>
       </c>
       <c r="S10">
-        <v>0.1134045690075766</v>
+        <v>0.1282278600356656</v>
       </c>
       <c r="T10">
-        <v>0.1134045690075766</v>
+        <v>0.1282278600356656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H11">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I11">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J11">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N11">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O11">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P11">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q11">
-        <v>1313.283312887235</v>
+        <v>1460.794153737948</v>
       </c>
       <c r="R11">
-        <v>1313.283312887235</v>
+        <v>13147.14738364153</v>
       </c>
       <c r="S11">
-        <v>0.06696205431003632</v>
+        <v>0.0639636555863872</v>
       </c>
       <c r="T11">
-        <v>0.06696205431003632</v>
+        <v>0.0639636555863872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H12">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I12">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J12">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N12">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O12">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P12">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q12">
-        <v>227.1105655086741</v>
+        <v>264.7758980356045</v>
       </c>
       <c r="R12">
-        <v>227.1105655086741</v>
+        <v>2382.98308232044</v>
       </c>
       <c r="S12">
-        <v>0.01157997659205825</v>
+        <v>0.01159371722989791</v>
       </c>
       <c r="T12">
-        <v>0.01157997659205825</v>
+        <v>0.01159371722989791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H13">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I13">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J13">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N13">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O13">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P13">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q13">
-        <v>2013.435007361705</v>
+        <v>2291.691244534175</v>
       </c>
       <c r="R13">
-        <v>2013.435007361705</v>
+        <v>20625.22120080757</v>
       </c>
       <c r="S13">
-        <v>0.1026615833686904</v>
+        <v>0.1003460679936558</v>
       </c>
       <c r="T13">
-        <v>0.1026615833686904</v>
+        <v>0.1003460679936558</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H14">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I14">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J14">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5859935571304</v>
+        <v>23.18520366666667</v>
       </c>
       <c r="N14">
-        <v>19.5859935571304</v>
+        <v>69.555611</v>
       </c>
       <c r="O14">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608106</v>
       </c>
       <c r="P14">
-        <v>0.3849335335686378</v>
+        <v>0.4216200689608105</v>
       </c>
       <c r="Q14">
-        <v>1198.003170663181</v>
+        <v>1418.479733000486</v>
       </c>
       <c r="R14">
-        <v>1198.003170663181</v>
+        <v>12766.31759700437</v>
       </c>
       <c r="S14">
-        <v>0.06108411840030117</v>
+        <v>0.06211083804363979</v>
       </c>
       <c r="T14">
-        <v>0.06108411840030117</v>
+        <v>0.06211083804363979</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H15">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I15">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J15">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.5649517101993</v>
+        <v>11.56543033333333</v>
       </c>
       <c r="N15">
-        <v>11.5649517101993</v>
+        <v>34.696291</v>
       </c>
       <c r="O15">
-        <v>0.2272919019590403</v>
+        <v>0.210315924104302</v>
       </c>
       <c r="P15">
-        <v>0.2272919019590403</v>
+        <v>0.2103159241043019</v>
       </c>
       <c r="Q15">
-        <v>707.3855496261714</v>
+        <v>707.5775036148723</v>
       </c>
       <c r="R15">
-        <v>707.3855496261714</v>
+        <v>6368.197532533851</v>
       </c>
       <c r="S15">
-        <v>0.03606837087426681</v>
+        <v>0.03098262929522676</v>
       </c>
       <c r="T15">
-        <v>0.03606837087426681</v>
+        <v>0.03098262929522677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H16">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I16">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J16">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.99996657020601</v>
+        <v>2.096289333333333</v>
       </c>
       <c r="N16">
-        <v>1.99996657020601</v>
+        <v>6.288868</v>
       </c>
       <c r="O16">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541245</v>
       </c>
       <c r="P16">
-        <v>0.03930636434873525</v>
+        <v>0.03812076296541244</v>
       </c>
       <c r="Q16">
-        <v>122.3305973903428</v>
+        <v>128.2517926773053</v>
       </c>
       <c r="R16">
-        <v>122.3305973903428</v>
+        <v>1154.266134095748</v>
       </c>
       <c r="S16">
-        <v>0.006237426475953925</v>
+        <v>0.005615749128072916</v>
       </c>
       <c r="T16">
-        <v>0.006237426475953925</v>
+        <v>0.005615749128072915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H17">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I17">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J17">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7305828858592</v>
+        <v>18.14382633333333</v>
       </c>
       <c r="N17">
-        <v>17.7305828858592</v>
+        <v>54.431479</v>
       </c>
       <c r="O17">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="P17">
-        <v>0.3484682001235868</v>
+        <v>0.3299432439694752</v>
       </c>
       <c r="Q17">
-        <v>1084.514525801661</v>
+        <v>1110.046316734124</v>
       </c>
       <c r="R17">
-        <v>1084.514525801661</v>
+        <v>9990.416850607118</v>
       </c>
       <c r="S17">
-        <v>0.05529752785565905</v>
+        <v>0.04860549318795834</v>
       </c>
       <c r="T17">
-        <v>0.05529752785565905</v>
+        <v>0.04860549318795835</v>
       </c>
     </row>
   </sheetData>
